--- a/GA_bNa_bCa_NaK/Best_ind1.xlsx
+++ b/GA_bNa_bCa_NaK/Best_ind1.xlsx
@@ -492,37 +492,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2873971097911543</v>
+        <v>0.3885289995838507</v>
       </c>
       <c r="B2" t="n">
-        <v>0.543382100495498</v>
+        <v>2.342934109310198</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4901790629663679</v>
+        <v>0.9037631997633683</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3313525892652122</v>
+        <v>0.5902783707397506</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8164132961852667</v>
+        <v>1.567789095060038</v>
       </c>
       <c r="F2" t="n">
-        <v>5.254191830738029</v>
+        <v>6.732786206016198</v>
       </c>
       <c r="G2" t="n">
-        <v>8.98685416797921</v>
+        <v>4.010555440947181</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4098211901961867</v>
+        <v>0.6277118605786319</v>
       </c>
       <c r="I2" t="n">
-        <v>1.48741257298919</v>
+        <v>0.1762131445999304</v>
       </c>
       <c r="J2" t="n">
-        <v>2.077688837146018</v>
+        <v>4.800126194982758</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1547834999846825</v>
+        <v>0.1727508609458564</v>
       </c>
     </row>
   </sheetData>
